--- a/GS_RPA_Temperatura_Oceano/data/SST_Data.xlsx
+++ b/GS_RPA_Temperatura_Oceano/data/SST_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gust_\Documents\UiPath\GS_RPA_Temperatura_Oceano\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gust_\Documents\GitHub\rpa-gs1-fiap\GS_RPA_Temperatura_Oceano\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE79F6-30E9-4A51-AD0A-40242A386F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97813C72-45DC-4DFA-99F5-40B29E18C443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9408" yWindow="1992" windowWidth="11292" windowHeight="9420" xr2:uid="{6C0257D2-0E90-4BFD-8ED0-A5A47413F72C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{6C0257D2-0E90-4BFD-8ED0-A5A47413F72C}"/>
   </bookViews>
   <sheets>
     <sheet name="SST_Data" sheetId="1" r:id="rId1"/>
@@ -49637,10 +49637,10 @@
         <v>20.95</v>
       </c>
       <c r="EN45">
-        <v>20.99</v>
+        <v>20.95</v>
       </c>
       <c r="EO45">
-        <v>20.98</v>
+        <v>20.95</v>
       </c>
       <c r="EP45">
         <v>20.95</v>
@@ -49680,6 +49680,12 @@
       </c>
       <c r="FB45">
         <v>20.94</v>
+      </c>
+      <c r="FC45">
+        <v>20.91</v>
+      </c>
+      <c r="FD45">
+        <v>20.91</v>
       </c>
     </row>
     <row r="46" spans="1:368" x14ac:dyDescent="0.3">
